--- a/L-Domestic Standard Upload.xlsx
+++ b/L-Domestic Standard Upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\275261\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{413646EE-C9D4-4775-99E7-E422053F8816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA16A48A-9410-4241-B834-E67E207C7B0D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53CE06-312B-4614-8151-FA1A9D504034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="1" xr2:uid="{CE78BDE3-7438-4330-9B0A-3EEE37903C7F}"/>
   </bookViews>
@@ -23,9 +23,15 @@
     <definedName name="class">'Dmstc Stndrd Upld Tmplt'!$K$5</definedName>
     <definedName name="classx">'Dmstc Stndrd Upld Tmplt'!$K$5</definedName>
     <definedName name="color">'Dmstc Stndrd Upld Tmplt'!$E$5</definedName>
+    <definedName name="compretailer">'Dmstc Stndrd Upld Tmplt'!$N$5</definedName>
+    <definedName name="compretailprice">'Dmstc Stndrd Upld Tmplt'!$R$5</definedName>
+    <definedName name="currentcost">'Dmstc Stndrd Upld Tmplt'!$P$5</definedName>
     <definedName name="department">'Dmstc Stndrd Upld Tmplt'!$J$5</definedName>
     <definedName name="label">'Dmstc Stndrd Upld Tmplt'!$D$5</definedName>
     <definedName name="material">'Dmstc Stndrd Upld Tmplt'!$M$5</definedName>
+    <definedName name="omitcompretail">'Dmstc Stndrd Upld Tmplt'!$O$5</definedName>
+    <definedName name="orderonquantity">'Dmstc Stndrd Upld Tmplt'!$S$5</definedName>
+    <definedName name="originalcost">'Dmstc Stndrd Upld Tmplt'!$Q$5</definedName>
     <definedName name="ponumber">'Dmstc Stndrd Upld Tmplt'!$H$5</definedName>
     <definedName name="size">'Dmstc Stndrd Upld Tmplt'!$F$5</definedName>
     <definedName name="supplierid">'Dmstc Stndrd Upld Tmplt'!$I$5</definedName>
@@ -40,6 +46,7 @@
     <definedName name="label_lookup">'domestic upload tmpt lookups'!$D$1:$D$9</definedName>
     <definedName name="size_lookup">'domestic upload tmpt lookups'!$E$1:$E$9</definedName>
     <definedName name="typeofbuy_lookup">'domestic upload tmpt lookups'!$F$1:$F$2</definedName>
+    <definedName name="test_doubles_lookup">'domestic upload tmpt lookups'!$G$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,8 +60,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1241,7 +1246,7 @@
     <t xml:space="preserve"> Jordan/Nike Air</t>
   </si>
   <si>
-    <t xml:space="preserve"> Home Essentials</t>
+    <t>Home Essentials</t>
   </si>
   <si>
     <t xml:space="preserve"> Madden</t>
@@ -1285,7 +1290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,26 +2162,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="5.140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="27.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="26" width="44.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="26" width="66.5703125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="26" width="14.85546875" collapsed="false"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="26" width="12.42578125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="26" width="14.140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="28" width="15.42578125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="26" width="15.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="26" width="14.85546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="26" width="5.15625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="27.15625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="26" width="44.41796875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="26" width="66.578125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="26" width="14.83984375" collapsed="false"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" style="26" width="12.41796875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="26" width="14.15625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="28" width="15.41796875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="26" width="15.41796875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="26" width="14.83984375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.15">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.9" hidden="1">
+    <row r="2" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="28.9">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" hidden="1" customHeight="1">
+    <row r="4" spans="1:11" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>7</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.9" hidden="1">
+    <row r="6" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>10</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>11</v>
       </c>
@@ -2421,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.9" hidden="1">
+    <row r="8" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>13</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>15</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>16</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>18</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>19</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>20</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>21</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>22</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" hidden="1">
+    <row r="17" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>23</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>24</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>25</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>26</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>27</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>28</v>
       </c>
@@ -2944,7 +2949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>29</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>30</v>
       </c>
@@ -3014,7 +3019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>31</v>
       </c>
@@ -3049,7 +3054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>32</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>33</v>
       </c>
@@ -3117,7 +3122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>34</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.9" hidden="1">
+    <row r="29" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <v>35</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>36</v>
       </c>
@@ -3222,7 +3227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
         <v>37</v>
       </c>
@@ -3257,7 +3262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.9" hidden="1">
+    <row r="32" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
         <v>38</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>39</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>40</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
         <v>41</v>
       </c>
@@ -3397,7 +3402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5">
         <v>42</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>43</v>
       </c>
@@ -3467,7 +3472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.9" hidden="1">
+    <row r="38" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5">
         <v>45</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5">
         <v>46</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.9" hidden="1">
+    <row r="40" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5">
         <v>47</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.9" hidden="1">
+    <row r="41" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5">
         <v>49</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5">
         <v>50</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5">
         <v>51</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="43.15">
+    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5">
         <v>52</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="43.15" hidden="1">
+    <row r="45" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5">
         <v>55</v>
       </c>
@@ -3745,7 +3750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.9" hidden="1">
+    <row r="46" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5">
         <v>57</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.9" hidden="1">
+    <row r="47" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5">
         <v>58</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5">
         <v>61</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.9" hidden="1">
+    <row r="49" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5">
         <v>62</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.9" hidden="1">
+    <row r="50" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5">
         <v>63</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.9" hidden="1">
+    <row r="51" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5">
         <v>66</v>
       </c>
@@ -3953,7 +3958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5">
         <v>76</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5">
         <v>77</v>
       </c>
@@ -4021,7 +4026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5">
         <v>78</v>
       </c>
@@ -4054,7 +4059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5">
         <v>83</v>
       </c>
@@ -4089,7 +4094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5">
         <v>84</v>
       </c>
@@ -4124,7 +4129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.9" hidden="1">
+    <row r="57" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5">
         <v>85</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5">
         <v>90</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="16" customFormat="1" hidden="1">
+    <row r="59" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5">
         <v>92</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" hidden="1" customHeight="1">
+    <row r="60" spans="1:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5">
         <v>93</v>
       </c>
@@ -4264,7 +4269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5">
         <v>98</v>
       </c>
@@ -4299,7 +4304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5">
         <v>101</v>
       </c>
@@ -4334,7 +4339,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5">
         <v>102</v>
       </c>
@@ -4369,7 +4374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="43.15" hidden="1">
+    <row r="64" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5">
         <v>103</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5">
         <v>104</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5">
         <v>105</v>
       </c>
@@ -4472,7 +4477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5">
         <v>106</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="5">
         <v>116</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5">
         <v>117</v>
       </c>
@@ -4577,7 +4582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5">
         <v>118</v>
       </c>
@@ -4612,7 +4617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5">
         <v>119</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.9" hidden="1">
+    <row r="72" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5">
         <v>120</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5">
         <v>121</v>
       </c>
@@ -4717,7 +4722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5">
         <v>122</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5">
         <v>123</v>
       </c>
@@ -4787,7 +4792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5">
         <v>125</v>
       </c>
@@ -4822,7 +4827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5">
         <v>126</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5">
         <v>129</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5">
         <v>130</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5">
         <v>131</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.9">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5">
         <v>132</v>
       </c>
@@ -4997,7 +5002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5">
         <v>133</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5">
         <v>138</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5">
         <v>139</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="5">
         <v>141</v>
       </c>
@@ -5137,7 +5142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5">
         <v>142</v>
       </c>
@@ -5172,7 +5177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5">
         <v>147</v>
       </c>
@@ -5205,7 +5210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="5">
         <v>148</v>
       </c>
@@ -5240,7 +5245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5">
         <v>152</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5">
         <v>153</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5">
         <v>154</v>
       </c>
@@ -5339,7 +5344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.9" hidden="1">
+    <row r="92" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="5">
         <v>155</v>
       </c>
@@ -5372,7 +5377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="24" customFormat="1" ht="28.9" hidden="1">
+    <row r="93" spans="1:11" s="24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="5">
         <v>158</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5">
         <v>164</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5">
         <v>165</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5">
         <v>167</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5">
         <v>168</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5">
         <v>170</v>
       </c>
@@ -5578,7 +5583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="5">
         <v>173</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="5">
         <v>177</v>
       </c>
@@ -5648,7 +5653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="5">
         <v>178</v>
       </c>
@@ -5737,75 +5742,75 @@
   <dimension ref="A1:CV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="9.42578125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="36" width="10.5703125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="8.42578125" collapsed="false"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="37" width="8.42578125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="38" width="10.42578125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="40" width="9.42578125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="39" width="8.5703125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="39" width="11.140625" collapsed="false"/>
+    <col min="1" max="1" width="8.68359375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="9.41796875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="36" width="10.578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="8.41796875" collapsed="false"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="37" width="8.41796875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="38" width="10.41796875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="40" width="9.41796875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="39" width="8.578125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="39" width="11.15625" collapsed="false"/>
     <col min="11" max="12" bestFit="true" customWidth="true" style="39" width="9.0" collapsed="false"/>
-    <col min="13" max="18" bestFit="true" customWidth="true" style="39" width="8.42578125" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="39" width="9.42578125" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="39" width="10.140625" collapsed="false"/>
-    <col min="21" max="23" bestFit="true" customWidth="true" style="39" width="9.42578125" collapsed="false"/>
-    <col min="24" max="30" bestFit="true" customWidth="true" style="39" width="8.42578125" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" style="39" width="13.140625" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="39" width="10.85546875" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="39" width="10.140625" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" style="39" width="12.7109375" collapsed="false"/>
+    <col min="13" max="18" bestFit="true" customWidth="true" style="39" width="8.41796875" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="39" width="9.41796875" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="39" width="10.15625" collapsed="false"/>
+    <col min="21" max="23" bestFit="true" customWidth="true" style="39" width="9.41796875" collapsed="false"/>
+    <col min="24" max="30" bestFit="true" customWidth="true" style="39" width="8.41796875" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" style="39" width="13.15625" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="39" width="10.83984375" collapsed="false"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="39" width="10.15625" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" style="39" width="12.68359375" collapsed="false"/>
     <col min="35" max="35" customWidth="true" style="38" width="11.0" collapsed="false"/>
-    <col min="36" max="36" style="38" width="8.7109375" collapsed="false"/>
-    <col min="37" max="38" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
+    <col min="36" max="36" style="38" width="8.68359375" collapsed="false"/>
+    <col min="37" max="38" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
     <col min="39" max="39" customWidth="true" style="38" width="11.0" collapsed="false"/>
-    <col min="40" max="44" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="45" max="45" style="38" width="8.7109375" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="38" width="8.5703125" collapsed="false"/>
-    <col min="47" max="51" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="52" max="52" style="38" width="8.7109375" collapsed="false"/>
-    <col min="53" max="55" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
+    <col min="40" max="44" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="45" max="45" style="38" width="8.68359375" collapsed="false"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="38" width="8.578125" collapsed="false"/>
+    <col min="47" max="51" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="52" max="52" style="38" width="8.68359375" collapsed="false"/>
+    <col min="53" max="55" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
     <col min="56" max="56" customWidth="true" style="38" width="18.0" collapsed="false"/>
-    <col min="57" max="59" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="38" width="8.42578125" collapsed="false"/>
-    <col min="61" max="63" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="64" max="64" customWidth="true" style="38" width="13.5703125" collapsed="false"/>
-    <col min="65" max="65" customWidth="true" style="38" width="12.85546875" collapsed="false"/>
-    <col min="66" max="66" customWidth="true" style="38" width="13.140625" collapsed="false"/>
-    <col min="67" max="67" customWidth="true" style="38" width="11.85546875" collapsed="false"/>
-    <col min="68" max="68" customWidth="true" style="38" width="15.85546875" collapsed="false"/>
-    <col min="69" max="69" customWidth="true" style="38" width="13.140625" collapsed="false"/>
-    <col min="70" max="70" customWidth="true" style="38" width="17.7109375" collapsed="false"/>
-    <col min="71" max="71" customWidth="true" style="38" width="11.42578125" collapsed="false"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="38" width="9.42578125" collapsed="false"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="74" max="74" customWidth="true" style="38" width="13.5703125" collapsed="false"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="38" width="8.5703125" collapsed="false"/>
-    <col min="76" max="77" style="38" width="8.7109375" collapsed="false"/>
-    <col min="78" max="80" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="38" width="8.42578125" collapsed="false"/>
-    <col min="82" max="83" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="84" max="84" customWidth="true" style="38" width="13.140625" collapsed="false"/>
-    <col min="85" max="86" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" style="38" width="8.42578125" collapsed="false"/>
-    <col min="88" max="88" customWidth="true" style="38" width="10.5703125" collapsed="false"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="38" width="8.42578125" collapsed="false"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="38" width="10.140625" collapsed="false"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="93" max="94" bestFit="true" customWidth="true" style="38" width="9.42578125" collapsed="false"/>
-    <col min="95" max="95" customWidth="true" style="38" width="11.42578125" collapsed="false"/>
-    <col min="96" max="99" bestFit="true" customWidth="true" style="38" width="8.28515625" collapsed="false"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="38" width="10.140625" collapsed="false"/>
+    <col min="57" max="59" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="false"/>
+    <col min="61" max="63" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="64" max="64" customWidth="true" style="38" width="13.578125" collapsed="false"/>
+    <col min="65" max="65" customWidth="true" style="38" width="12.83984375" collapsed="false"/>
+    <col min="66" max="66" customWidth="true" style="38" width="13.15625" collapsed="false"/>
+    <col min="67" max="67" customWidth="true" style="38" width="11.83984375" collapsed="false"/>
+    <col min="68" max="68" customWidth="true" style="38" width="15.83984375" collapsed="false"/>
+    <col min="69" max="69" customWidth="true" style="38" width="13.15625" collapsed="false"/>
+    <col min="70" max="70" customWidth="true" style="38" width="17.68359375" collapsed="false"/>
+    <col min="71" max="71" customWidth="true" style="38" width="11.41796875" collapsed="false"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="38" width="9.41796875" collapsed="false"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="74" max="74" customWidth="true" style="38" width="13.578125" collapsed="false"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="38" width="8.578125" collapsed="false"/>
+    <col min="76" max="77" style="38" width="8.68359375" collapsed="false"/>
+    <col min="78" max="80" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="false"/>
+    <col min="82" max="83" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="84" max="84" customWidth="true" style="38" width="13.15625" collapsed="false"/>
+    <col min="85" max="86" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="false"/>
+    <col min="88" max="88" customWidth="true" style="38" width="10.578125" collapsed="false"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="false"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="38" width="10.15625" collapsed="false"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="93" max="94" bestFit="true" customWidth="true" style="38" width="9.41796875" collapsed="false"/>
+    <col min="95" max="95" customWidth="true" style="38" width="11.41796875" collapsed="false"/>
+    <col min="96" max="99" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="false"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="38" width="10.15625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="43.15">
+    <row r="1" spans="1:100" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="14.65" thickBot="1">
+    <row r="2" spans="1:100" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -6409,7 +6414,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31"/>
       <c r="B3" s="52" t="s">
         <v>17</v>
@@ -6709,7 +6714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:100" s="29" customFormat="1" ht="57.95" thickBot="1">
+    <row r="4" spans="1:100" s="29" customFormat="1" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="31" t="s">
         <v>248</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:100" hidden="1">
+    <row r="5" spans="1:100" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -7126,7 +7131,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7151,6 +7156,9 @@
       <c r="F1" s="0" t="s">
         <v>292</v>
       </c>
+      <c r="G1" s="0" t="n">
+        <v>0.021</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -7171,6 +7179,9 @@
       <c r="F2" s="0" t="s">
         <v>293</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>100.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -7187,6 +7198,9 @@
       </c>
       <c r="E3" s="0" t="s">
         <v>285</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>9.275</v>
       </c>
     </row>
     <row r="4">
@@ -7276,12 +7290,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7470,19 +7481,54 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9149A93E-C697-4066-B609-D79D6821B8AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7799FA91-D05F-41CA-9D85-32D7401AB4F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ab086da4-aeaa-470f-88f5-e96437a646bb"/>
+    <ds:schemaRef ds:uri="cc44513a-9740-48a8-b9a6-11a9236a0f51"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DAFC0D-C589-4871-8EC2-037587728CED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DAFC0D-C589-4871-8EC2-037587728CED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc44513a-9740-48a8-b9a6-11a9236a0f51"/>
+    <ds:schemaRef ds:uri="ab086da4-aeaa-470f-88f5-e96437a646bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7799FA91-D05F-41CA-9D85-32D7401AB4F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9149A93E-C697-4066-B609-D79D6821B8AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>